--- a/biology/Zoologie/Grandilithus_nonggang/Grandilithus_nonggang.xlsx
+++ b/biology/Zoologie/Grandilithus_nonggang/Grandilithus_nonggang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grandilithus nonggang est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grandilithus nonggang est une espèce d'araignées aranéomorphes de la famille des Phrurolithidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Guangxi en Chine[1],[2]. Elle se rencontre dans les xians de Longzhou et de Shanglin[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Guangxi en Chine,. Elle se rencontre dans les xians de Longzhou et de Shanglin.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 3,64 mm et la femelle paratype 4,84 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 3,64 mm et la femelle paratype 4,84 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia nonggang par Liu, Xu, Xiao, Yin et Peng en 2019. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Otacilia nonggang par Liu, Xu, Xiao, Yin et Peng en 2019. Elle est placée dans le genre Grandilithus par Liu, Li, Zhang, Ying, Meng, Fei, Li, Xiao et Xu en 2022.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la réserve nationale naturelle de Nonggang.
 </t>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Liu, Xu, Xiao, Yin &amp; Peng, 2019 : « Six new species of Otacilia from southern China (Araneae: Phrurolithidae). » Zootaxa, no 4585(3), p. 438-458.</t>
         </is>
